--- a/Lockwood Flooring/30678/Bld E - Work Breakdown Structure.xlsx
+++ b/Lockwood Flooring/30678/Bld E - Work Breakdown Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\16.0 DESIGN\VU (Victoria University)\Site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Lockwood Flooring\30678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9CB601-150D-43CB-B912-C8AABACCE698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF12A98A-8608-4F07-B938-7B39EB66F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="-16020" windowWidth="25440" windowHeight="15390" xr2:uid="{C62A4C82-48B8-488E-B365-4DCDE5022323}"/>
+    <workbookView xWindow="3225" yWindow="690" windowWidth="29280" windowHeight="19920" xr2:uid="{C62A4C82-48B8-488E-B365-4DCDE5022323}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS Lockwood" sheetId="4" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1156,28 +1156,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1199,9 +1188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1239,7 +1228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1345,7 +1334,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1487,7 +1476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1495,24 +1484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E742CED1-D1AC-4581-84DB-7499650C288E}">
-  <dimension ref="A1:K565"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1525,83 +1514,83 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27" t="s">
+      <c r="F2" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="27" t="s">
+      <c r="F4" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F5" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="29" t="s">
+      <c r="F6" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1611,102 +1600,101 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="20" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E17" s="12" t="s">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E18" s="13" t="s">
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E19" s="13" t="s">
+      <c r="F18" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="13" t="s">
+    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>25</v>
       </c>
@@ -1715,19 +1703,19 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>30</v>
       </c>
@@ -1736,51 +1724,51 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="13" t="s">
+    <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="13" t="s">
+    <row r="30" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E31" s="13" t="s">
+    <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1782,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1802,7 +1790,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1810,7 +1798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1818,40 +1806,40 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="13" t="s">
+    <row r="40" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E41" s="3" t="s">
         <v>36</v>
       </c>
@@ -1859,37 +1847,37 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E42" s="11" t="s">
+    <row r="42" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E44" s="14" t="s">
+    <row r="44" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E46" s="13" t="s">
+    <row r="46" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>25</v>
       </c>
@@ -1900,7 +1888,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1908,7 +1896,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1916,49 +1904,49 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E50" s="13" t="s">
+    <row r="50" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E53" s="13" t="s">
+    <row r="53" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E54" s="12" t="s">
+    <row r="54" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1967,61 +1955,61 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E59" s="13" t="s">
+    <row r="59" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E63" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E64" s="7"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E65" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E66" s="7"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E67" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>62</v>
       </c>
@@ -2033,17 +2021,17 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E69" s="7"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E71" s="3" t="s">
         <v>66</v>
       </c>
@@ -2051,51 +2039,51 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E72" s="14"/>
+    <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="7"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E73" s="11" t="s">
+    <row r="73" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="5" t="s">
         <v>67</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E74" s="13" t="s">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E75" s="11"/>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E76" s="14"/>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E77" s="11" t="s">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E78" s="12" t="s">
+    <row r="78" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="9" t="s">
         <v>70</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="7" t="s">
         <v>71</v>
       </c>
@@ -2103,29 +2091,29 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E80" s="12" t="s">
+    <row r="80" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E81" s="13" t="s">
+    <row r="81" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E82" s="13" t="s">
+    <row r="82" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>19</v>
       </c>
@@ -2136,11 +2124,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E85" s="3" t="s">
         <v>73</v>
       </c>
@@ -2148,11 +2136,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E86" s="14"/>
+    <row r="86" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="7"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E87" s="3" t="s">
         <v>76</v>
       </c>
@@ -2160,55 +2148,55 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E88" s="14"/>
+    <row r="88" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="7"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="9" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E91" s="13" t="s">
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E93" s="7"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E94" s="13" t="s">
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E96" s="7"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E97" s="3" t="s">
         <v>87</v>
       </c>
@@ -2216,12 +2204,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="15"/>
+    <row r="98" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E98" s="7"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E99" s="9" t="s">
         <v>88</v>
       </c>
@@ -2229,15 +2216,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E100" s="12" t="s">
+    <row r="100" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E101" s="7" t="s">
         <v>90</v>
       </c>
@@ -2245,7 +2232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E102" s="7" t="s">
         <v>91</v>
       </c>
@@ -2253,7 +2240,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="7" t="s">
         <v>92</v>
       </c>
@@ -2261,15 +2248,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E104" s="12" t="s">
+    <row r="104" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E105" s="3" t="s">
         <v>94</v>
       </c>
@@ -2277,7 +2264,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E106" s="3" t="s">
         <v>95</v>
       </c>
@@ -2285,35 +2272,35 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E107" s="7"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E108" s="12" t="s">
+    <row r="108" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E109" s="13" t="s">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E110" s="5"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E111" s="5"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>98</v>
       </c>
@@ -2324,35 +2311,35 @@
         <v>272</v>
       </c>
     </row>
-    <row r="113" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114" s="3" t="s">
         <v>80</v>
       </c>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E115" s="7"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E118" s="7"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E119" s="3" t="s">
         <v>82</v>
       </c>
@@ -2360,11 +2347,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E120" s="7"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121" s="3" t="s">
         <v>83</v>
       </c>
@@ -2372,172 +2359,172 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E123" s="7"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E124" s="13" t="s">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E126" s="7"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E127" s="13" t="s">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E128" s="5"/>
       <c r="F128" s="6"/>
     </row>
-    <row r="129" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E129" s="7"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E130" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E131" s="7"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E132" s="13" t="s">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E133" s="5"/>
       <c r="F133" s="6"/>
     </row>
-    <row r="134" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E134" s="7"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E135" s="13" t="s">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E136" s="7"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E137" s="9" t="s">
         <v>104</v>
       </c>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E138" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E139" s="13" t="s">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E140" s="7"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E141" s="13" t="s">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F141" s="17"/>
-    </row>
-    <row r="142" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E142" s="7"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E143" s="13" t="s">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E144" s="7"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>109</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F145" s="17"/>
-    </row>
-    <row r="146" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E146" s="7"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E147" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E148" s="7"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E149" s="13" t="s">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="3" t="s">
         <v>112</v>
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E150" s="5"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E151" s="7"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E152" s="13" t="s">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
     </row>
-    <row r="154" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E154" s="7"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E155" s="3" t="s">
         <v>114</v>
       </c>
@@ -2545,55 +2532,55 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E156" s="5"/>
       <c r="F156" s="6"/>
     </row>
-    <row r="157" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E157" s="7"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E158" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E160" s="7"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E161" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F161" s="17"/>
-    </row>
-    <row r="162" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E162" s="7"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E163" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E164" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F164" s="17"/>
-    </row>
-    <row r="165" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E165" s="7"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>119</v>
       </c>
@@ -2605,49 +2592,49 @@
       </c>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E167" s="7"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E168" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="3:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E169" s="20" t="s">
+    <row r="169" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E169" s="11" t="s">
         <v>121</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
     </row>
-    <row r="171" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E171" s="7"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E172" s="20" t="s">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
     </row>
-    <row r="174" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E174" s="7"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E175" s="3" t="s">
         <v>123</v>
       </c>
@@ -2655,15 +2642,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E176" s="5"/>
       <c r="F176" s="6"/>
     </row>
-    <row r="177" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E177" s="7"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E178" s="3" t="s">
         <v>124</v>
       </c>
@@ -2671,15 +2658,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E179" s="5"/>
       <c r="F179" s="6"/>
     </row>
-    <row r="180" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E180" s="7"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E181" s="3" t="s">
         <v>125</v>
       </c>
@@ -2687,15 +2674,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E182" s="5"/>
       <c r="F182" s="6"/>
     </row>
-    <row r="183" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E183" s="7"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E184" s="3" t="s">
         <v>126</v>
       </c>
@@ -2703,15 +2690,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E185" s="5"/>
       <c r="F185" s="6"/>
     </row>
-    <row r="186" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E186" s="7"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E187" s="3" t="s">
         <v>127</v>
       </c>
@@ -2719,15 +2706,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E188" s="5"/>
       <c r="F188" s="6"/>
     </row>
-    <row r="189" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E189" s="7"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E190" s="3" t="s">
         <v>128</v>
       </c>
@@ -2735,15 +2722,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E191" s="5"/>
       <c r="F191" s="6"/>
     </row>
-    <row r="192" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E192" s="7"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E193" s="3" t="s">
         <v>129</v>
       </c>
@@ -2751,15 +2738,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E194" s="5"/>
       <c r="F194" s="6"/>
     </row>
-    <row r="195" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E195" s="7"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>131</v>
       </c>
@@ -2770,11 +2757,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="197" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E197" s="7"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E198" s="3" t="s">
         <v>133</v>
       </c>
@@ -2782,11 +2769,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="199" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E199" s="7"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E200" s="3" t="s">
         <v>134</v>
       </c>
@@ -2794,15 +2781,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E201" s="5"/>
       <c r="F201" s="6"/>
     </row>
-    <row r="202" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E202" s="7"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E203" s="9" t="s">
         <v>135</v>
       </c>
@@ -2810,7 +2797,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E204" s="3" t="s">
         <v>136</v>
       </c>
@@ -2818,15 +2805,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E205" s="5"/>
       <c r="F205" s="6"/>
     </row>
-    <row r="206" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E206" s="7"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E207" s="3" t="s">
         <v>137</v>
       </c>
@@ -2834,11 +2821,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="208" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E208" s="7"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E209" s="3" t="s">
         <v>141</v>
       </c>
@@ -2846,15 +2833,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E210" s="5"/>
       <c r="F210" s="6"/>
     </row>
-    <row r="211" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E211" s="7"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E212" s="3" t="s">
         <v>142</v>
       </c>
@@ -2862,15 +2849,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E213" s="5"/>
       <c r="F213" s="6"/>
     </row>
-    <row r="214" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E214" s="7"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E215" s="3" t="s">
         <v>143</v>
       </c>
@@ -2878,15 +2865,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E216" s="5"/>
       <c r="F216" s="6"/>
     </row>
-    <row r="217" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E217" s="7"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E218" s="3" t="s">
         <v>144</v>
       </c>
@@ -2894,15 +2881,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E219" s="5"/>
       <c r="F219" s="6"/>
     </row>
-    <row r="220" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E220" s="7"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E221" s="3" t="s">
         <v>145</v>
       </c>
@@ -2910,15 +2897,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E222" s="5"/>
       <c r="F222" s="6"/>
     </row>
-    <row r="223" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E223" s="7"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E224" s="3" t="s">
         <v>146</v>
       </c>
@@ -2926,15 +2913,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E225" s="5"/>
       <c r="F225" s="6"/>
     </row>
-    <row r="226" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E226" s="7"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E227" s="3" t="s">
         <v>147</v>
       </c>
@@ -2942,15 +2929,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E228" s="5"/>
       <c r="F228" s="6"/>
     </row>
-    <row r="229" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E229" s="7"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E230" s="3" t="s">
         <v>148</v>
       </c>
@@ -2958,15 +2945,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E231" s="5"/>
       <c r="F231" s="6"/>
     </row>
-    <row r="232" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E232" s="7"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E233" s="3" t="s">
         <v>138</v>
       </c>
@@ -2974,11 +2961,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="234" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E234" s="7"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E235" s="3" t="s">
         <v>139</v>
       </c>
@@ -2986,11 +2973,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="236" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E236" s="7"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E237" s="3" t="s">
         <v>140</v>
       </c>
@@ -2998,11 +2985,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="238" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E238" s="7"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E239" s="3" t="s">
         <v>149</v>
       </c>
@@ -3010,15 +2997,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="240" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E240" s="5"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E241" s="7"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E242" s="3" t="s">
         <v>150</v>
       </c>
@@ -3026,15 +3013,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="243" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E243" s="5"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E244" s="7"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E245" s="3" t="s">
         <v>151</v>
       </c>
@@ -3042,15 +3029,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E246" s="5"/>
       <c r="F246" s="6"/>
     </row>
-    <row r="247" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E247" s="7"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E248" s="3" t="s">
         <v>152</v>
       </c>
@@ -3058,15 +3045,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E249" s="5"/>
       <c r="F249" s="6"/>
     </row>
-    <row r="250" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E250" s="7"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E251" s="3" t="s">
         <v>153</v>
       </c>
@@ -3074,15 +3061,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E252" s="5"/>
       <c r="F252" s="6"/>
     </row>
-    <row r="253" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E253" s="7"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E254" s="3" t="s">
         <v>154</v>
       </c>
@@ -3090,15 +3077,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E255" s="5"/>
       <c r="F255" s="6"/>
     </row>
-    <row r="256" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E256" s="7"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E257" s="9" t="s">
         <v>155</v>
       </c>
@@ -3106,71 +3093,71 @@
         <v>272</v>
       </c>
     </row>
-    <row r="258" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E258" s="9" t="s">
         <v>156</v>
       </c>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E259" s="13" t="s">
+    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E259" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E260" s="7"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E261" s="13" t="s">
+    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E261" s="3" t="s">
         <v>158</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E262" s="5"/>
       <c r="F262" s="6"/>
     </row>
-    <row r="263" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E263" s="7"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E264" s="13" t="s">
+    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E264" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="265" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E265" s="5"/>
       <c r="F265" s="6"/>
     </row>
-    <row r="266" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E266" s="7"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E267" s="13" t="s">
+    <row r="267" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E267" s="3" t="s">
         <v>160</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E268" s="5"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E269" s="7"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E270" s="3" t="s">
         <v>161</v>
       </c>
@@ -3178,15 +3165,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E271" s="5"/>
       <c r="F271" s="6"/>
     </row>
-    <row r="272" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E272" s="7"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E273" s="3" t="s">
         <v>162</v>
       </c>
@@ -3194,15 +3181,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E274" s="5"/>
       <c r="F274" s="6"/>
     </row>
-    <row r="275" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E275" s="7"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E276" s="3" t="s">
         <v>163</v>
       </c>
@@ -3210,11 +3197,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="277" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E277" s="7"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E278" s="3" t="s">
         <v>164</v>
       </c>
@@ -3222,15 +3209,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E279" s="5"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E280" s="7"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E281" s="3" t="s">
         <v>165</v>
       </c>
@@ -3238,11 +3225,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E282" s="7"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E283" s="3" t="s">
         <v>166</v>
       </c>
@@ -3250,11 +3237,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="284" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E284" s="7"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E285" s="3" t="s">
         <v>167</v>
       </c>
@@ -3262,11 +3249,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="286" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E286" s="7"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E287" s="3" t="s">
         <v>168</v>
       </c>
@@ -3274,11 +3261,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="288" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E288" s="7"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>98</v>
       </c>
@@ -3289,15 +3276,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E290" s="5"/>
       <c r="F290" s="6"/>
     </row>
-    <row r="291" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E291" s="7"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E292" s="3" t="s">
         <v>170</v>
       </c>
@@ -3305,15 +3292,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E293" s="5"/>
       <c r="F293" s="6"/>
     </row>
-    <row r="294" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E294" s="7"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E295" s="3" t="s">
         <v>171</v>
       </c>
@@ -3321,15 +3308,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E296" s="5"/>
       <c r="F296" s="6"/>
     </row>
-    <row r="297" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E297" s="7"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E298" s="3" t="s">
         <v>172</v>
       </c>
@@ -3337,15 +3324,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E299" s="5"/>
       <c r="F299" s="6"/>
     </row>
-    <row r="300" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E300" s="7"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E301" s="3" t="s">
         <v>130</v>
       </c>
@@ -3353,15 +3340,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E302" s="5"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E303" s="5"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E304" s="3" t="s">
         <v>173</v>
       </c>
@@ -3369,15 +3356,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="305" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E305" s="5"/>
       <c r="F305" s="6"/>
     </row>
-    <row r="306" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E306" s="7"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E307" s="3" t="s">
         <v>174</v>
       </c>
@@ -3385,101 +3372,101 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E308" s="5"/>
       <c r="F308" s="6"/>
     </row>
-    <row r="309" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E309" s="7"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E310" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E311" s="5"/>
       <c r="F311" s="6"/>
     </row>
-    <row r="312" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E312" s="7"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E313" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E314" s="7"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E315" s="9" t="s">
         <v>177</v>
       </c>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E316" s="9" t="s">
         <v>178</v>
       </c>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E317" s="13" t="s">
+    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E317" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F317" s="17"/>
-    </row>
-    <row r="318" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E318" s="7"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E319" s="13" t="s">
+    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E319" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F319" s="17"/>
-    </row>
-    <row r="320" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E320" s="7"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E321" s="12" t="s">
+    <row r="321" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E321" s="9" t="s">
         <v>181</v>
       </c>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E322" s="13" t="s">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E322" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F322" s="17"/>
-    </row>
-    <row r="323" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E323" s="7"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E324" s="13" t="s">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E324" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E325" s="5"/>
       <c r="F325" s="6"/>
     </row>
-    <row r="326" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E326" s="7"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
         <v>109</v>
       </c>
@@ -3490,77 +3477,77 @@
         <v>272</v>
       </c>
     </row>
-    <row r="328" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E328" s="7"/>
       <c r="F328" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E329" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F329" s="17"/>
-    </row>
-    <row r="330" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E330" s="7"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E331" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F331" s="17"/>
-    </row>
-    <row r="332" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E332" s="7"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E333" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F333" s="21"/>
-    </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E334" s="13" t="s">
+      <c r="F333" s="10"/>
+    </row>
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E334" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E335" s="5"/>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E336" s="7"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E337" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E338" s="5"/>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E339" s="7"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E340" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E341" s="7"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C342" t="s">
         <v>191</v>
       </c>
@@ -3572,53 +3559,53 @@
       </c>
       <c r="F342" s="10"/>
     </row>
-    <row r="343" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E343" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F343" s="21"/>
-    </row>
-    <row r="344" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E344" s="13" t="s">
+      <c r="F343" s="10"/>
+    </row>
+    <row r="344" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E344" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="345" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E345" s="11"/>
+    <row r="345" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E345" s="5"/>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E346" s="5"/>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E347" s="7"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E348" s="13" t="s">
+    <row r="348" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E348" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F348" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="349" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E349" s="11"/>
+    <row r="349" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E349" s="5"/>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E350" s="5"/>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E351" s="7"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E352" s="3" t="s">
         <v>195</v>
       </c>
@@ -3626,15 +3613,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E353" s="5"/>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E354" s="7"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E355" s="3" t="s">
         <v>197</v>
       </c>
@@ -3642,19 +3629,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E356" s="5"/>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E357" s="5"/>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E358" s="7"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E359" s="3" t="s">
         <v>198</v>
       </c>
@@ -3662,19 +3649,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E360" s="5"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E361" s="5"/>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E362" s="7"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E363" s="3" t="s">
         <v>199</v>
       </c>
@@ -3682,19 +3669,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E364" s="5"/>
       <c r="F364" s="6"/>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E365" s="5"/>
       <c r="F365" s="6"/>
     </row>
-    <row r="366" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E366" s="7"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E367" s="3" t="s">
         <v>200</v>
       </c>
@@ -3702,19 +3689,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E368" s="5"/>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E369" s="5"/>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E370" s="7"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E371" s="3" t="s">
         <v>201</v>
       </c>
@@ -3722,19 +3709,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E372" s="5"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E373" s="5"/>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E374" s="7"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E375" s="3" t="s">
         <v>202</v>
       </c>
@@ -3742,19 +3729,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E376" s="5"/>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E377" s="5"/>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E378" s="7"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E379" s="3" t="s">
         <v>203</v>
       </c>
@@ -3762,19 +3749,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="380" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E380" s="5"/>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E381" s="5"/>
       <c r="F381" s="6"/>
     </row>
-    <row r="382" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E382" s="7"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E383" s="3" t="s">
         <v>204</v>
       </c>
@@ -3782,15 +3769,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="384" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E384" s="5"/>
       <c r="F384" s="6"/>
     </row>
-    <row r="385" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E385" s="7"/>
       <c r="F385" s="6"/>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E386" s="3" t="s">
         <v>205</v>
       </c>
@@ -3798,19 +3785,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E387" s="5"/>
       <c r="F387" s="6"/>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E388" s="5"/>
       <c r="F388" s="6"/>
     </row>
-    <row r="389" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E389" s="7"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E390" s="3" t="s">
         <v>206</v>
       </c>
@@ -3818,19 +3805,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E391" s="5"/>
       <c r="F391" s="6"/>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E392" s="5"/>
       <c r="F392" s="6"/>
     </row>
-    <row r="393" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E393" s="7"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E394" s="3" t="s">
         <v>207</v>
       </c>
@@ -3838,19 +3825,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E395" s="5"/>
       <c r="F395" s="6"/>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E396" s="5"/>
       <c r="F396" s="6"/>
     </row>
-    <row r="397" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E397" s="7"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E398" s="3" t="s">
         <v>208</v>
       </c>
@@ -3858,19 +3845,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E399" s="5"/>
       <c r="F399" s="6"/>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E400" s="5"/>
       <c r="F400" s="6"/>
     </row>
-    <row r="401" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E401" s="7"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E402" s="3" t="s">
         <v>209</v>
       </c>
@@ -3878,19 +3865,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E403" s="5"/>
       <c r="F403" s="6"/>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E404" s="5"/>
       <c r="F404" s="6"/>
     </row>
-    <row r="405" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E405" s="7"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E406" s="3" t="s">
         <v>210</v>
       </c>
@@ -3898,19 +3885,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E407" s="5"/>
       <c r="F407" s="6"/>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E408" s="5"/>
       <c r="F408" s="6"/>
     </row>
-    <row r="409" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E409" s="7"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E410" s="3" t="s">
         <v>211</v>
       </c>
@@ -3918,19 +3905,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E411" s="5"/>
       <c r="F411" s="6"/>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E412" s="5"/>
       <c r="F412" s="6"/>
     </row>
-    <row r="413" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E413" s="7"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
         <v>131</v>
       </c>
@@ -3941,19 +3928,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E415" s="5"/>
       <c r="F415" s="6"/>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E416" s="5"/>
       <c r="F416" s="6"/>
     </row>
-    <row r="417" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E417" s="7"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E418" s="3" t="s">
         <v>213</v>
       </c>
@@ -3961,19 +3948,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="419" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E419" s="5"/>
       <c r="F419" s="6"/>
     </row>
-    <row r="420" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E420" s="5"/>
       <c r="F420" s="6"/>
     </row>
-    <row r="421" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E421" s="7"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E422" s="3" t="s">
         <v>214</v>
       </c>
@@ -3981,19 +3968,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="423" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E423" s="5"/>
       <c r="F423" s="6"/>
     </row>
-    <row r="424" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E424" s="5"/>
       <c r="F424" s="6"/>
     </row>
-    <row r="425" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E425" s="7"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E426" s="3" t="s">
         <v>215</v>
       </c>
@@ -4001,19 +3988,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="427" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E427" s="5"/>
       <c r="F427" s="6"/>
     </row>
-    <row r="428" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E428" s="5"/>
       <c r="F428" s="6"/>
     </row>
-    <row r="429" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E429" s="7"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E430" s="3" t="s">
         <v>216</v>
       </c>
@@ -4021,19 +4008,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="431" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E431" s="5"/>
       <c r="F431" s="6"/>
     </row>
-    <row r="432" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E432" s="5"/>
       <c r="F432" s="6"/>
     </row>
-    <row r="433" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E433" s="7"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E434" s="3" t="s">
         <v>217</v>
       </c>
@@ -4041,19 +4028,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="435" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E435" s="5"/>
       <c r="F435" s="6"/>
     </row>
-    <row r="436" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E436" s="5"/>
       <c r="F436" s="6"/>
     </row>
-    <row r="437" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E437" s="7"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E438" s="3" t="s">
         <v>218</v>
       </c>
@@ -4061,19 +4048,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="439" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E439" s="5"/>
       <c r="F439" s="6"/>
     </row>
-    <row r="440" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E440" s="5"/>
       <c r="F440" s="6"/>
     </row>
-    <row r="441" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E441" s="7"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E442" s="3" t="s">
         <v>219</v>
       </c>
@@ -4081,19 +4068,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="443" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E443" s="5"/>
       <c r="F443" s="6"/>
     </row>
-    <row r="444" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E444" s="5"/>
       <c r="F444" s="6"/>
     </row>
-    <row r="445" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E445" s="7"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E446" s="3" t="s">
         <v>220</v>
       </c>
@@ -4101,19 +4088,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="447" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E447" s="5"/>
       <c r="F447" s="6"/>
     </row>
-    <row r="448" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E448" s="5"/>
       <c r="F448" s="6"/>
     </row>
-    <row r="449" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E449" s="7"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E450" s="3" t="s">
         <v>221</v>
       </c>
@@ -4121,43 +4108,43 @@
         <v>273</v>
       </c>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E451" s="5"/>
       <c r="F451" s="6"/>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E452" s="5"/>
       <c r="F452" s="6"/>
     </row>
-    <row r="453" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E453" s="7"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E454" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E455" s="5"/>
       <c r="F455" s="6"/>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E456" s="5"/>
       <c r="F456" s="6"/>
     </row>
-    <row r="457" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E457" s="7"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E458" s="9" t="s">
         <v>223</v>
       </c>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E459" s="3" t="s">
         <v>224</v>
       </c>
@@ -4165,23 +4152,23 @@
         <v>273</v>
       </c>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E460" s="5"/>
       <c r="F460" s="6"/>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E461" s="5"/>
       <c r="F461" s="6"/>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E462" s="5"/>
       <c r="F462" s="6"/>
     </row>
-    <row r="463" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E463" s="7"/>
       <c r="F463" s="6"/>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
         <v>98</v>
       </c>
@@ -4192,19 +4179,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="465" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E465" s="5"/>
       <c r="F465" s="6"/>
     </row>
-    <row r="466" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E466" s="5"/>
       <c r="F466" s="6"/>
     </row>
-    <row r="467" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E467" s="7"/>
       <c r="F467" s="6"/>
     </row>
-    <row r="468" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E468" s="3" t="s">
         <v>226</v>
       </c>
@@ -4212,19 +4199,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="469" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E469" s="5"/>
       <c r="F469" s="6"/>
     </row>
-    <row r="470" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E470" s="5"/>
       <c r="F470" s="6"/>
     </row>
-    <row r="471" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E471" s="7"/>
       <c r="F471" s="6"/>
     </row>
-    <row r="472" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E472" s="3" t="s">
         <v>227</v>
       </c>
@@ -4232,19 +4219,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="473" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E473" s="5"/>
       <c r="F473" s="6"/>
     </row>
-    <row r="474" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E474" s="5"/>
       <c r="F474" s="6"/>
     </row>
-    <row r="475" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E475" s="7"/>
       <c r="F475" s="6"/>
     </row>
-    <row r="476" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E476" s="3" t="s">
         <v>228</v>
       </c>
@@ -4252,19 +4239,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="477" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E477" s="5"/>
       <c r="F477" s="6"/>
     </row>
-    <row r="478" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E478" s="5"/>
       <c r="F478" s="6"/>
     </row>
-    <row r="479" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E479" s="7"/>
       <c r="F479" s="6"/>
     </row>
-    <row r="480" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E480" s="3" t="s">
         <v>229</v>
       </c>
@@ -4272,19 +4259,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="481" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E481" s="5"/>
       <c r="F481" s="6"/>
     </row>
-    <row r="482" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E482" s="5"/>
       <c r="F482" s="6"/>
     </row>
-    <row r="483" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E483" s="7"/>
       <c r="F483" s="6"/>
     </row>
-    <row r="484" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E484" s="3" t="s">
         <v>230</v>
       </c>
@@ -4292,19 +4279,19 @@
         <v>273</v>
       </c>
     </row>
-    <row r="485" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E485" s="5"/>
       <c r="F485" s="6"/>
     </row>
-    <row r="486" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E486" s="5"/>
       <c r="F486" s="6"/>
     </row>
-    <row r="487" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E487" s="7"/>
       <c r="F487" s="6"/>
     </row>
-    <row r="488" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E488" s="3" t="s">
         <v>231</v>
       </c>
@@ -4312,105 +4299,105 @@
         <v>273</v>
       </c>
     </row>
-    <row r="489" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E489" s="5"/>
       <c r="F489" s="6"/>
     </row>
-    <row r="490" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E490" s="5"/>
       <c r="F490" s="6"/>
     </row>
-    <row r="491" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E491" s="7"/>
       <c r="F491" s="6"/>
     </row>
-    <row r="492" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E492" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F492" s="21"/>
-    </row>
-    <row r="493" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F492" s="10"/>
+    </row>
+    <row r="493" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E493" s="9" t="s">
         <v>233</v>
       </c>
       <c r="F493" s="10"/>
     </row>
-    <row r="494" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E494" s="13" t="s">
+    <row r="494" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E494" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F494" s="4"/>
     </row>
-    <row r="495" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E495" s="11"/>
+    <row r="495" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E495" s="5"/>
       <c r="F495" s="6"/>
     </row>
-    <row r="496" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E496" s="5"/>
       <c r="F496" s="6"/>
     </row>
-    <row r="497" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E497" s="7"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E498" s="9" t="s">
         <v>235</v>
       </c>
       <c r="F498" s="10"/>
     </row>
-    <row r="499" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E499" s="9" t="s">
         <v>236</v>
       </c>
       <c r="F499" s="10"/>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E500" s="13" t="s">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E500" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F500" s="17"/>
-    </row>
-    <row r="501" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F500" s="4"/>
+    </row>
+    <row r="501" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E501" s="7"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E502" s="13" t="s">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E502" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F502" s="17"/>
-    </row>
-    <row r="503" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F502" s="4"/>
+    </row>
+    <row r="503" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E503" s="7"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E504" s="13" t="s">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E504" s="3" t="s">
         <v>239</v>
       </c>
       <c r="F504" s="4"/>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E505" s="11"/>
+    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E505" s="5"/>
       <c r="F505" s="6"/>
     </row>
-    <row r="506" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E506" s="7"/>
       <c r="F506" s="8"/>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E507" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F507" s="17"/>
-    </row>
-    <row r="508" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F507" s="4"/>
+    </row>
+    <row r="508" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E508" s="7"/>
       <c r="F508" s="8"/>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" t="s">
         <v>109</v>
       </c>
@@ -4421,139 +4408,139 @@
         <v>273</v>
       </c>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E510" s="5"/>
       <c r="F510" s="6"/>
     </row>
-    <row r="511" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E511" s="7"/>
       <c r="F511" s="8"/>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E512" s="3" t="s">
         <v>242</v>
       </c>
       <c r="F512" s="4"/>
     </row>
-    <row r="513" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E513" s="5"/>
       <c r="F513" s="6"/>
     </row>
-    <row r="514" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E514" s="5"/>
       <c r="F514" s="6"/>
     </row>
-    <row r="515" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E515" s="7"/>
       <c r="F515" s="8"/>
     </row>
-    <row r="516" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E516" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F516" s="4"/>
     </row>
-    <row r="517" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E517" s="5"/>
       <c r="F517" s="6"/>
     </row>
-    <row r="518" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E518" s="5"/>
       <c r="F518" s="6"/>
     </row>
-    <row r="519" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E519" s="7"/>
       <c r="F519" s="8"/>
     </row>
-    <row r="520" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E520" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F520" s="4"/>
     </row>
-    <row r="521" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E521" s="7"/>
       <c r="F521" s="8"/>
     </row>
-    <row r="522" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E522" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F522" s="17"/>
-    </row>
-    <row r="523" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F522" s="4"/>
+    </row>
+    <row r="523" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E523" s="7"/>
       <c r="F523" s="8"/>
     </row>
-    <row r="524" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E524" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F524" s="21"/>
-    </row>
-    <row r="525" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E525" s="13" t="s">
+      <c r="F524" s="10"/>
+    </row>
+    <row r="525" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E525" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F525" s="17"/>
-    </row>
-    <row r="526" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F525" s="4"/>
+    </row>
+    <row r="526" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E526" s="7"/>
       <c r="F526" s="8"/>
     </row>
-    <row r="527" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C527" t="s">
         <v>248</v>
       </c>
       <c r="D527" t="s">
         <v>120</v>
       </c>
-      <c r="E527" s="12" t="s">
+      <c r="E527" s="9" t="s">
         <v>249</v>
       </c>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E528" s="12" t="s">
+    <row r="528" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E528" s="9" t="s">
         <v>250</v>
       </c>
       <c r="F528" s="10"/>
     </row>
-    <row r="529" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E529" s="12" t="s">
+    <row r="529" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E529" s="9" t="s">
         <v>251</v>
       </c>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E530" s="13" t="s">
+    <row r="530" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E530" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F530" s="4"/>
     </row>
-    <row r="531" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E531" s="5"/>
       <c r="F531" s="6"/>
     </row>
-    <row r="532" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E532" s="7"/>
       <c r="F532" s="8"/>
     </row>
-    <row r="533" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E533" s="13" t="s">
+    <row r="533" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E533" s="3" t="s">
         <v>253</v>
       </c>
       <c r="F533" s="4"/>
     </row>
-    <row r="534" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E534" s="5"/>
       <c r="F534" s="6"/>
     </row>
-    <row r="535" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E535" s="7"/>
       <c r="F535" s="8"/>
     </row>
-    <row r="536" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E536" s="3" t="s">
         <v>254</v>
       </c>
@@ -4561,55 +4548,55 @@
         <v>273</v>
       </c>
     </row>
-    <row r="537" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E537" s="5"/>
       <c r="F537" s="6"/>
     </row>
-    <row r="538" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E538" s="5"/>
       <c r="F538" s="6"/>
     </row>
-    <row r="539" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E539" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F539" s="17"/>
-    </row>
-    <row r="540" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F539" s="4"/>
+    </row>
+    <row r="540" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E540" s="5"/>
       <c r="F540" s="6"/>
     </row>
-    <row r="541" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E541" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F541" s="17"/>
-    </row>
-    <row r="542" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F541" s="4"/>
+    </row>
+    <row r="542" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E542" s="5"/>
       <c r="F542" s="6"/>
     </row>
-    <row r="543" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E543" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F543" s="4"/>
     </row>
-    <row r="544" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E544" s="5"/>
       <c r="F544" s="6"/>
     </row>
-    <row r="545" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E545" s="3" t="s">
         <v>268</v>
       </c>
       <c r="F545" s="4"/>
     </row>
-    <row r="546" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E546" s="7"/>
       <c r="F546" s="8"/>
     </row>
-    <row r="547" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D547" t="s">
         <v>98</v>
       </c>
@@ -4618,57 +4605,57 @@
       </c>
       <c r="F547" s="10"/>
     </row>
-    <row r="548" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E548" s="9" t="s">
         <v>256</v>
       </c>
       <c r="F548" s="10"/>
     </row>
-    <row r="549" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E549" s="13" t="s">
+    <row r="549" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E549" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F549" s="17"/>
-    </row>
-    <row r="550" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F549" s="4"/>
+    </row>
+    <row r="550" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E550" s="7"/>
       <c r="F550" s="8"/>
     </row>
-    <row r="551" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E551" s="13" t="s">
+    <row r="551" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E551" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F551" s="17"/>
-    </row>
-    <row r="552" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F551" s="4"/>
+    </row>
+    <row r="552" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E552" s="7"/>
       <c r="F552" s="8"/>
     </row>
-    <row r="553" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="E553" s="13" t="s">
+    <row r="553" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E553" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F553" s="4"/>
     </row>
-    <row r="554" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E554" s="5"/>
       <c r="F554" s="6"/>
     </row>
-    <row r="555" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E555" s="7"/>
       <c r="F555" s="8"/>
     </row>
-    <row r="556" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E556" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F556" s="17"/>
-    </row>
-    <row r="557" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F556" s="4"/>
+    </row>
+    <row r="557" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E557" s="7"/>
       <c r="F557" s="8"/>
     </row>
-    <row r="558" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D558" t="s">
         <v>109</v>
       </c>
@@ -4677,41 +4664,41 @@
       </c>
       <c r="F558" s="10"/>
     </row>
-    <row r="559" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E559" s="3" t="s">
         <v>262</v>
       </c>
       <c r="F559" s="4"/>
     </row>
-    <row r="560" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E560" s="7"/>
       <c r="F560" s="8"/>
     </row>
-    <row r="561" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E561" s="13" t="s">
+    <row r="561" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E561" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F561" s="17"/>
-    </row>
-    <row r="562" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F561" s="4"/>
+    </row>
+    <row r="562" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E562" s="7"/>
       <c r="F562" s="8"/>
     </row>
-    <row r="563" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E563" s="13" t="s">
+    <row r="563" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E563" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F563" s="17"/>
-    </row>
-    <row r="564" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F563" s="4"/>
+    </row>
+    <row r="564" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E564" s="7"/>
       <c r="F564" s="8"/>
     </row>
-    <row r="565" spans="5:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E565" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F565" s="21"/>
+      <c r="F565" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
